--- a/VolginaAnnaLab1/metrics.xlsx
+++ b/VolginaAnnaLab1/metrics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Изначальная модель</t>
   </si>
@@ -32,35 +32,41 @@
     <t>Размер, мб</t>
   </si>
   <si>
-    <t>12.085</t>
-  </si>
-  <si>
     <t>Инференс, мс</t>
   </si>
   <si>
-    <t>85.0392</t>
-  </si>
-  <si>
     <t>quantize_dynamic</t>
   </si>
   <si>
-    <t>63.7313</t>
-  </si>
-  <si>
     <t>prune.l1_unstructured</t>
   </si>
   <si>
-    <t>24.025</t>
-  </si>
-  <si>
-    <t>72.6070</t>
+    <t>166.848</t>
+  </si>
+  <si>
+    <t>kmean_cluster</t>
+  </si>
+  <si>
+    <t>473.5643</t>
+  </si>
+  <si>
+    <t>462.4400</t>
+  </si>
+  <si>
+    <t>522.9264</t>
+  </si>
+  <si>
+    <t>551.5921</t>
+  </si>
+  <si>
+    <t>333.072</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +89,14 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,12 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -390,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,45 +417,55 @@
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
